--- a/medicine/Sexualité et sexologie/2_Girls_1_Cup/2_Girls_1_Cup.xlsx
+++ b/medicine/Sexualité et sexologie/2_Girls_1_Cup/2_Girls_1_Cup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 Girls 1 Cup (en français : 2 Filles 1 Tasse) est le nom officiel de Hungry Bitches (en français : Salopes affamées), un film long-métrage brésilien porno-scatophile produit en 2007 par MFX Media[1]. La bande-annonce met en vedette deux jeunes femmes dans une relation fétichiste, déféquant dans une tasse, avalant à tour de rôle leurs matières fécales, vomissant chacune dans la bouche de l'autre. Lovers Theme d'Hervé Roy est jouée durant la bande-annonce[2].
-Cette bande-annonce est une vidéo virale qui a été diffusée sur Internet, et qui est devenue un mème chez les internautes et les blogueurs au cours de l'année 2007. À partir de mi-octobre, des sites de partages de vidéos, tels que YouTube ou Dailymotion, ont été inondés de vidéos titrées 2 Girls 1 Cup dans lesquelles les internautes filmaient les réactions de leurs amis lorsqu'ils regardaient la bande-annonce du film[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 Girls 1 Cup (en français : 2 Filles 1 Tasse) est le nom officiel de Hungry Bitches (en français : Salopes affamées), un film long-métrage brésilien porno-scatophile produit en 2007 par MFX Media. La bande-annonce met en vedette deux jeunes femmes dans une relation fétichiste, déféquant dans une tasse, avalant à tour de rôle leurs matières fécales, vomissant chacune dans la bouche de l'autre. Lovers Theme d'Hervé Roy est jouée durant la bande-annonce.
+Cette bande-annonce est une vidéo virale qui a été diffusée sur Internet, et qui est devenue un mème chez les internautes et les blogueurs au cours de l'année 2007. À partir de mi-octobre, des sites de partages de vidéos, tels que YouTube ou Dailymotion, ont été inondés de vidéos titrées 2 Girls 1 Cup dans lesquelles les internautes filmaient les réactions de leurs amis lorsqu'ils regardaient la bande-annonce du film.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vidéo a été produite par Marco Fiorito, un Brésilien de 36 ans qui se décrit comme un « fétichiste compulsif »[4]. Fiorito produisait à l'origine des vidéos exploitant le fétichisme pour les pieds, mais a évolué vers la coprophagie. Le film a été produit par MFX Video, l'une des nombreuses entreprises tenues par Fiorito[1]. Les autorités américaines ont dénoté ces films comme étant choquants et ont engagé des poursuites contre Danilo Croce, un avocat brésilien vivant en Floride et ayant distribué les films de Fiorito aux États-Unis. Fiorito a affirmé qu’il ne savait nullement que ces films étaient illégaux sur le sol américain[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vidéo a été produite par Marco Fiorito, un Brésilien de 36 ans qui se décrit comme un « fétichiste compulsif ». Fiorito produisait à l'origine des vidéos exploitant le fétichisme pour les pieds, mais a évolué vers la coprophagie. Le film a été produit par MFX Video, l'une des nombreuses entreprises tenues par Fiorito. Les autorités américaines ont dénoté ces films comme étant choquants et ont engagé des poursuites contre Danilo Croce, un avocat brésilien vivant en Floride et ayant distribué les films de Fiorito aux États-Unis. Fiorito a affirmé qu’il ne savait nullement que ces films étaient illégaux sur le sol américain.
 </t>
         </is>
       </c>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Réactions
-Outre le contenu, une des raisons qui a fait de 2 Girls 1 Cup un phénomène internet est l'idée de surprendre son entourage en lui faisant visionner la vidéo sans lui en dévoiler la nature, filmer la réaction de la personne et poster l'extrait sur le web[5]. Des centaines de vidéos des « réactions à 2 Girls 1 Cup » existent, notamment sur YouTube. Finalement, cette idée de filmer les réactions d'autrui à une vidéo choquante s'est étendue à d'autres vidéos telles 2 Girls 1 Finger ou BME Pain Olympics.
-Parodies
-Un court-métrage intitulé 2 Guys 1 Cup est tourné dans lequel le comédien et chanteur John Mayer savoure avec un ami un cornet de glace de la même manière que les deux femmes de 2 Girls 1 Cup dégustaient les matières fécales[6],[7]. Le blogueur mondain Perez Hilton a aussi posté sur YouTube sa propre parodie, 1 Guy 1 Jar[1]. L'humoriste canadien Jon Lajoie a aussi interprété sur internet une chanson[8]. Une version des « réactions filmées » met en vedette la grenouille Kermit.
+          <t>Réactions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre le contenu, une des raisons qui a fait de 2 Girls 1 Cup un phénomène internet est l'idée de surprendre son entourage en lui faisant visionner la vidéo sans lui en dévoiler la nature, filmer la réaction de la personne et poster l'extrait sur le web. Des centaines de vidéos des « réactions à 2 Girls 1 Cup » existent, notamment sur YouTube. Finalement, cette idée de filmer les réactions d'autrui à une vidéo choquante s'est étendue à d'autres vidéos telles 2 Girls 1 Finger ou BME Pain Olympics.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2_Girls_1_Cup</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2_Girls_1_Cup</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Réception</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parodies</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un court-métrage intitulé 2 Guys 1 Cup est tourné dans lequel le comédien et chanteur John Mayer savoure avec un ami un cornet de glace de la même manière que les deux femmes de 2 Girls 1 Cup dégustaient les matières fécales,. Le blogueur mondain Perez Hilton a aussi posté sur YouTube sa propre parodie, 1 Guy 1 Jar. L'humoriste canadien Jon Lajoie a aussi interprété sur internet une chanson. Une version des « réactions filmées » met en vedette la grenouille Kermit.
 </t>
         </is>
       </c>
